--- a/DB/Tablas de aprendizaje de movimientos/Legendarios.xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Legendarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Documents\Monsters Feudal Seishin\Guión y bases de datos\Bases para el sistema de combate\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oxikr\source\repos\monster-Feudal\DB\Tablas de aprendizaje de movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
